--- a/analyses/MK/Tables.xlsx
+++ b/analyses/MK/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DrosoNatThermPref\analyses\MK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6606D71-B498-40ED-A649-1AE2BF0938B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54F2140-49B5-49C4-AA50-BEC1AA903267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="6720" activeTab="4" xr2:uid="{97BCBB39-C10E-47AA-AA07-9130207A1714}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17090" windowHeight="6720" activeTab="3" xr2:uid="{97BCBB39-C10E-47AA-AA07-9130207A1714}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="1" r:id="rId1"/>
@@ -159,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -239,26 +239,26 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -273,26 +273,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -612,16 +612,16 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -663,7 +663,7 @@
         <v>9.7661799999999993E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -677,7 +677,7 @@
         <v>0.1282256</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -716,17 +716,17 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -740,7 +740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0.62863570000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0.57515870000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
@@ -782,7 +782,7 @@
         <v>0.52081560000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -796,7 +796,7 @@
         <v>8.384E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -810,7 +810,7 @@
         <v>0.62189430000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0.78324689999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.5707546</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
@@ -863,15 +863,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -905,7 +905,7 @@
         <v>19.0188452077245</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -922,7 +922,7 @@
         <v>19.045195273875802</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
@@ -939,7 +939,7 @@
         <v>18.744596729191901</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>27</v>
       </c>
@@ -956,7 +956,7 @@
         <v>20.117794490252699</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -973,7 +973,7 @@
         <v>19.9760040800718</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -990,7 +990,7 @@
         <v>20.478413231379498</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>23.0222839975307</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
@@ -1039,16 +1039,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC14E10D-4BC6-41AA-AAFE-CCCC4F2524EC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.70064139999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>5.8257700000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0.56821200000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0.36514150000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>2.6000000000000001E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>3.0898599999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
@@ -1169,18 +1169,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0583CC86-BF58-4BCE-BC49-5AD39C00DB0F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0.75701909999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>0.68253430000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>8</v>
       </c>

--- a/analyses/MK/Tables.xlsx
+++ b/analyses/MK/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DrosoNatThermPref\analyses\MK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54F2140-49B5-49C4-AA50-BEC1AA903267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F9532-350C-464F-BD51-1A8C3251AD90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17090" windowHeight="6720" activeTab="3" xr2:uid="{97BCBB39-C10E-47AA-AA07-9130207A1714}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17090" windowHeight="6720" firstSheet="1" activeTab="6" xr2:uid="{97BCBB39-C10E-47AA-AA07-9130207A1714}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="TableS1" sheetId="3" r:id="rId3"/>
     <sheet name="TableS2" sheetId="5" r:id="rId4"/>
     <sheet name="TableS3" sheetId="6" r:id="rId5"/>
+    <sheet name="TableS4" sheetId="7" r:id="rId6"/>
+    <sheet name="Tabelle3" sheetId="9" r:id="rId7"/>
+    <sheet name="Tabelle2" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TableS1!$A$1:$E$1</definedName>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t xml:space="preserve">line                      </t>
   </si>
@@ -152,6 +155,15 @@
   </si>
   <si>
     <t xml:space="preserve">wMelCS           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">antibiotic_treatment      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient_temp              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">line:antibiotic_treatment </t>
   </si>
 </sst>
 </file>
@@ -612,7 +624,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC14E10D-4BC6-41AA-AAFE-CCCC4F2524EC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1239,4 +1251,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E893A4-FDB7-4A27-BBCF-BF110874EF63}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>23.816817</v>
+      </c>
+      <c r="C2" s="20">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1.227E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3.1880169999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.4179899999999993E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3.194731</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.3875899999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>11.805344</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.9060000000000004E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10">
+        <v>9.4502790000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.22192310000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCE8AAE-A05C-41D7-83E2-90C03CE95AA1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9505D5E-F852-4353-96A3-F147EB703229}">
+  <dimension ref="B1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="B1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>23.816817</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>1.227E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>3.1880169999999999</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7.4179899999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>3.194731</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>7.3875899999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>11.805344</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5.9060000000000004E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>9.4502790000000001</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>0.22192310000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>